--- a/biology/Médecine/1153_en_santé_et_médecine/1153_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1153_en_santé_et_médecine/1153_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1153_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1153_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1153 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1153_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1153_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital Saint-Jean d'Angers[1].
-« Henri, évêque de Liège, vi[ent] consacrer à Namur une « ecclesia infirmorum extra oppidum » (église des malades située hors de la ville) qui ne peut être que la léproserie[2] ».
-1150-1153[3] (1151[4]) : Pierre Ier, vicomte de Béarn, fonde à Ordios, entre Bordeaux et Ostabat, sur le chemin de Saint-Jacques, un hôpital de pèlerins qui fonctionnera encore en 1739.
-Vers 1153 : « la léproserie Saint-Lazare, aussi appelée Castelnau », fondée à Montpellier en 1143 par Guilhem VI, « passe sous la double autorité du seigneur de la ville et de l’évêché de Maguelone[5] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital Saint-Jean d'Angers.
+« Henri, évêque de Liège, vi[ent] consacrer à Namur une « ecclesia infirmorum extra oppidum » (église des malades située hors de la ville) qui ne peut être que la léproserie ».
+1150-1153 (1151) : Pierre Ier, vicomte de Béarn, fonde à Ordios, entre Bordeaux et Ostabat, sur le chemin de Saint-Jacques, un hôpital de pèlerins qui fonctionnera encore en 1739.
+Vers 1153 : « la léproserie Saint-Lazare, aussi appelée Castelnau », fondée à Montpellier en 1143 par Guilhem VI, « passe sous la double autorité du seigneur de la ville et de l’évêché de Maguelone ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1153_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1153_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'historien Charles d'Aigrefeuille, Héracle de Montboissier, archevêque de Lyon, tombé malade sur son chemin vers Rome, se détourne pour venir se faire soigner à Montpellier[6],[7].
-Mort de Bernard de Clairvaux (° 1115) : ses guérisons relèvent du miracle et, contrairement à ce qu'a prétendu Jérôme Delanoue[8], il n'était pas chirurgien[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'historien Charles d'Aigrefeuille, Héracle de Montboissier, archevêque de Lyon, tombé malade sur son chemin vers Rome, se détourne pour venir se faire soigner à Montpellier,.
+Mort de Bernard de Clairvaux (° 1115) : ses guérisons relèvent du miracle et, contrairement à ce qu'a prétendu Jérôme Delanoue, il n'était pas chirurgien.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1153_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1153_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gautier Agilon, De pulsibus[10]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gautier Agilon, De pulsibus</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1153_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1153_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. Goduin, médecin de l'abbaye de Clairvaux[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. Goduin, médecin de l'abbaye de Clairvaux.</t>
         </is>
       </c>
     </row>
